--- a/台語拼音對應表/台語拼音對應表-韻母.xlsx
+++ b/台語拼音對應表/台語拼音對應表-韻母.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasa Bayaru\Desktop\台語拼音對應表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hasa Bayaru\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F711D-2749-4348-9834-6A7FAE43F4AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E97E4D-82B6-4557-9326-D25F023C54CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{456CB87F-14C2-436E-8F0A-612DC85D2B31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="367">
   <si>
     <t>白話字(POJ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2085,7 +2085,7 @@
   </si>
   <si>
     <r>
-      <t>[iat</t>
+      <t>[uat</t>
     </r>
     <r>
       <rPr>
@@ -2100,7 +2100,7 @@
   </si>
   <si>
     <r>
-      <t>[uat</t>
+      <t>[ap</t>
     </r>
     <r>
       <rPr>
@@ -2115,7 +2115,7 @@
   </si>
   <si>
     <r>
-      <t>[ap</t>
+      <t>[ip</t>
     </r>
     <r>
       <rPr>
@@ -2130,7 +2130,7 @@
   </si>
   <si>
     <r>
-      <t>[ip</t>
+      <t>[iap</t>
     </r>
     <r>
       <rPr>
@@ -2145,21 +2145,6 @@
   </si>
   <si>
     <r>
-      <t>[iap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>̚]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>[a</t>
     </r>
     <r>
@@ -2422,6 +2407,34 @@
   </si>
   <si>
     <t>iab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[iet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>̚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚㆵ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2870,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA8ABE4-ED00-416C-89C2-17E6F3CD75D4}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73:F85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2980,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -3026,7 +3039,7 @@
         <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
@@ -3342,7 +3355,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>64</v>
@@ -3388,7 +3401,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>75</v>
@@ -3426,7 +3439,7 @@
         <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>76</v>
@@ -3449,7 +3462,7 @@
         <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>77</v>
@@ -3472,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>238</v>
@@ -3495,7 +3508,7 @@
         <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>79</v>
@@ -3541,7 +3554,7 @@
         <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>81</v>
@@ -3564,7 +3577,7 @@
         <v>87</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>87</v>
@@ -3610,7 +3623,7 @@
         <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>275</v>
@@ -3633,7 +3646,7 @@
         <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>84</v>
@@ -3656,7 +3669,7 @@
         <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>85</v>
@@ -3679,7 +3692,7 @@
         <v>88</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>88</v>
@@ -3702,7 +3715,7 @@
         <v>91</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>91</v>
@@ -3748,7 +3761,7 @@
         <v>93</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>93</v>
@@ -3771,7 +3784,7 @@
         <v>97</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>97</v>
@@ -3794,7 +3807,7 @@
         <v>98</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>98</v>
@@ -3811,13 +3824,13 @@
         <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>58</v>
@@ -3834,13 +3847,13 @@
         <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>103</v>
@@ -3857,13 +3870,13 @@
         <v>171</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>58</v>
@@ -3880,13 +3893,13 @@
         <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>104</v>
@@ -3903,13 +3916,13 @@
         <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>106</v>
@@ -4075,13 +4088,13 @@
         <v>198</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>248</v>
@@ -4328,13 +4341,13 @@
         <v>207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>250</v>
@@ -4374,13 +4387,13 @@
         <v>213</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>259</v>
@@ -4397,13 +4410,13 @@
         <v>194</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>261</v>
@@ -4420,13 +4433,13 @@
         <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>260</v>
@@ -4443,13 +4456,13 @@
         <v>195</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>250</v>
@@ -4466,13 +4479,13 @@
         <v>196</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>240</v>
@@ -4512,13 +4525,13 @@
         <v>197</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>250</v>
@@ -4538,10 +4551,10 @@
         <v>125</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>263</v>
@@ -4561,10 +4574,10 @@
         <v>128</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>128</v>
@@ -4584,10 +4597,10 @@
         <v>127</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>264</v>
@@ -4607,10 +4620,10 @@
         <v>129</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>265</v>
@@ -4630,10 +4643,10 @@
         <v>130</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>266</v>
@@ -4653,10 +4666,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>267</v>
@@ -4676,10 +4689,10 @@
         <v>145</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>268</v>
@@ -4699,10 +4712,10 @@
         <v>146</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>269</v>
@@ -4710,22 +4723,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>270</v>
@@ -4733,7 +4746,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>148</v>
@@ -4745,10 +4758,10 @@
         <v>271</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>271</v>
@@ -4756,7 +4769,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>149</v>
@@ -4768,10 +4781,10 @@
         <v>149</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>274</v>
@@ -4779,7 +4792,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>150</v>
@@ -4791,10 +4804,10 @@
         <v>150</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>273</v>
@@ -4802,7 +4815,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>151</v>
@@ -4814,10 +4827,10 @@
         <v>151</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>272</v>
